--- a/report_template.xlsx
+++ b/report_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20235" windowHeight="11700" tabRatio="788" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20235" windowHeight="11700" tabRatio="788" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <definedName name="Z_29ADDA07_E427_4C12_A26F_16DB0F983414_.wvu.PrintArea" localSheetId="6" hidden="1">'Elect Maker'!$A$1:$G$5</definedName>
     <definedName name="Z_29ADDA07_E427_4C12_A26F_16DB0F983414_.wvu.PrintArea" localSheetId="4" hidden="1">'Summary-E'!$A$1:$T$68</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <customWorkbookViews>
     <customWorkbookView name="Le Minh Trong - Personal View" guid="{29ADDA07-E427-4C12-A26F-16DB0F983414}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="788" activeSheetId="6"/>
   </customWorkbookViews>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="751">
   <si>
     <t>1) Labor contract with people of local country.</t>
   </si>
@@ -3037,6 +3037,9 @@
   </si>
   <si>
     <t>SUMMARY OF ELECTRICAL WORKS</t>
+  </si>
+  <si>
+    <t>施工会社名 :</t>
   </si>
 </sst>
 </file>
@@ -7974,12 +7977,90 @@
     <xf numFmtId="0" fontId="139" fillId="0" borderId="60" xfId="352" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="352" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="158" fillId="22" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="217" fontId="142" fillId="22" borderId="23" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="142" fillId="22" borderId="23" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="142" fillId="22" borderId="23" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="216" fontId="2" fillId="0" borderId="23" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="142" fillId="0" borderId="25" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="146" fillId="30" borderId="23" xfId="252" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="136" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="136" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="136" fillId="32" borderId="23" xfId="252" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="136" fillId="33" borderId="23" xfId="252" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="136" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="136" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="136" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="136" fillId="0" borderId="23" xfId="252" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="136" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="136" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="136" fillId="29" borderId="23" xfId="194" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="136" fillId="0" borderId="23" xfId="252" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="136" fillId="0" borderId="22" xfId="252" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="118" fillId="0" borderId="0" xfId="349" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7989,6 +8070,15 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="349" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="62" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="68" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="60" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7998,6 +8088,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="64" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="62" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="68" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="60" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="61" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8034,36 +8145,6 @@
     <xf numFmtId="0" fontId="122" fillId="0" borderId="15" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="64" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="62" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="68" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="60" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="62" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="68" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="60" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="61" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="84" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8085,6 +8166,21 @@
     <xf numFmtId="0" fontId="90" fillId="0" borderId="86" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="344" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="1" fillId="27" borderId="9" xfId="344" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="27" borderId="9" xfId="344" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="344" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8145,20 +8241,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="344" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="217" fontId="142" fillId="22" borderId="58" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="217" fontId="142" fillId="22" borderId="15" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="142" fillId="22" borderId="58" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="142" fillId="22" borderId="15" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" xfId="344" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="216" fontId="2" fillId="0" borderId="58" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="2" fillId="0" borderId="15" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="1" fillId="27" borderId="9" xfId="344" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="27" borderId="9" xfId="344" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="136" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8178,134 +8301,14 @@
     <xf numFmtId="174" fontId="136" fillId="29" borderId="9" xfId="194" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="217" fontId="142" fillId="22" borderId="58" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="217" fontId="142" fillId="22" borderId="15" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="142" fillId="22" borderId="58" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="142" fillId="22" borderId="15" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="216" fontId="2" fillId="0" borderId="58" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="216" fontId="2" fillId="0" borderId="15" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="58" xfId="352" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="15" xfId="352" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="217" fontId="142" fillId="22" borderId="23" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="142" fillId="22" borderId="23" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="142" fillId="22" borderId="23" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="216" fontId="2" fillId="0" borderId="23" xfId="194" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="142" fillId="0" borderId="25" xfId="198" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="146" fillId="30" borderId="23" xfId="252" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="136" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="136" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="136" fillId="32" borderId="23" xfId="252" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="136" fillId="33" borderId="23" xfId="252" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="136" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="136" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="136" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="136" fillId="0" borderId="23" xfId="252" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="136" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="136" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="136" fillId="29" borderId="23" xfId="194" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="136" fillId="0" borderId="23" xfId="252" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="136" fillId="0" borderId="22" xfId="252" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="352" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="373">
@@ -11293,17 +11296,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="757" t="s">
+      <c r="A1" s="783" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="757"/>
-      <c r="C1" s="757"/>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
+      <c r="B1" s="783"/>
+      <c r="C1" s="783"/>
+      <c r="D1" s="783"/>
+      <c r="E1" s="783"/>
+      <c r="F1" s="783"/>
+      <c r="G1" s="783"/>
+      <c r="H1" s="783"/>
+      <c r="I1" s="783"/>
     </row>
     <row r="2" spans="1:9" s="167" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="166"/>
@@ -11362,12 +11365,12 @@
       </c>
       <c r="D10" s="278"/>
       <c r="E10" s="279"/>
-      <c r="F10" s="758" t="s">
+      <c r="F10" s="784" t="s">
         <v>747</v>
       </c>
-      <c r="G10" s="758"/>
-      <c r="H10" s="758"/>
-      <c r="I10" s="758"/>
+      <c r="G10" s="784"/>
+      <c r="H10" s="784"/>
+      <c r="I10" s="784"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="173"/>
@@ -11379,22 +11382,22 @@
       </c>
       <c r="D11" s="278"/>
       <c r="E11" s="279"/>
-      <c r="F11" s="758"/>
-      <c r="G11" s="758"/>
-      <c r="H11" s="758"/>
-      <c r="I11" s="758"/>
+      <c r="F11" s="784"/>
+      <c r="G11" s="784"/>
+      <c r="H11" s="784"/>
+      <c r="I11" s="784"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1"/>
     <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="B13" s="759" t="s">
+      <c r="B13" s="785" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="759"/>
-      <c r="D13" s="759"/>
-      <c r="E13" s="759"/>
-      <c r="F13" s="759"/>
-      <c r="G13" s="759"/>
-      <c r="H13" s="759"/>
+      <c r="C13" s="785"/>
+      <c r="D13" s="785"/>
+      <c r="E13" s="785"/>
+      <c r="F13" s="785"/>
+      <c r="G13" s="785"/>
+      <c r="H13" s="785"/>
       <c r="I13" s="174"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
@@ -11676,13 +11679,13 @@
       <c r="F2" s="443" t="s">
         <v>419</v>
       </c>
-      <c r="G2" s="766" t="s">
+      <c r="G2" s="802" t="s">
         <v>420</v>
       </c>
-      <c r="H2" s="766"/>
-      <c r="I2" s="766"/>
-      <c r="J2" s="766"/>
-      <c r="K2" s="766"/>
+      <c r="H2" s="802"/>
+      <c r="I2" s="802"/>
+      <c r="J2" s="802"/>
+      <c r="K2" s="802"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="207"/>
@@ -11745,13 +11748,13 @@
       <c r="A7" s="212" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="767" t="s">
+      <c r="B7" s="803" t="s">
         <v>426</v>
       </c>
-      <c r="C7" s="768"/>
-      <c r="D7" s="768"/>
-      <c r="E7" s="768"/>
-      <c r="F7" s="769"/>
+      <c r="C7" s="804"/>
+      <c r="D7" s="804"/>
+      <c r="E7" s="804"/>
+      <c r="F7" s="805"/>
       <c r="G7" s="213" t="s">
         <v>427</v>
       </c>
@@ -11772,13 +11775,13 @@
       <c r="A8" s="214" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="770" t="s">
+      <c r="B8" s="806" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="771"/>
-      <c r="D8" s="771"/>
-      <c r="E8" s="771"/>
-      <c r="F8" s="772"/>
+      <c r="C8" s="807"/>
+      <c r="D8" s="807"/>
+      <c r="E8" s="807"/>
+      <c r="F8" s="808"/>
       <c r="G8" s="215"/>
       <c r="H8" s="625"/>
       <c r="I8" s="625"/>
@@ -11929,7 +11932,7 @@
       <c r="J16" s="617" t="s">
         <v>434</v>
       </c>
-      <c r="K16" s="773"/>
+      <c r="K16" s="809"/>
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="214"/>
@@ -11944,7 +11947,7 @@
       <c r="H17" s="714"/>
       <c r="I17" s="625"/>
       <c r="J17" s="714"/>
-      <c r="K17" s="774"/>
+      <c r="K17" s="810"/>
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="217"/>
@@ -12225,13 +12228,13 @@
     </row>
     <row r="35" spans="1:11" ht="15">
       <c r="A35" s="217"/>
-      <c r="B35" s="760" t="s">
+      <c r="B35" s="789" t="s">
         <v>457</v>
       </c>
-      <c r="C35" s="761"/>
-      <c r="D35" s="761"/>
-      <c r="E35" s="761"/>
-      <c r="F35" s="762"/>
+      <c r="C35" s="790"/>
+      <c r="D35" s="790"/>
+      <c r="E35" s="790"/>
+      <c r="F35" s="791"/>
       <c r="G35" s="223"/>
       <c r="H35" s="617" t="s">
         <v>434</v>
@@ -12385,13 +12388,13 @@
     </row>
     <row r="45" spans="1:11" ht="15">
       <c r="A45" s="235"/>
-      <c r="B45" s="760" t="s">
+      <c r="B45" s="789" t="s">
         <v>467</v>
       </c>
-      <c r="C45" s="761"/>
-      <c r="D45" s="761"/>
-      <c r="E45" s="761"/>
-      <c r="F45" s="761"/>
+      <c r="C45" s="790"/>
+      <c r="D45" s="790"/>
+      <c r="E45" s="790"/>
+      <c r="F45" s="790"/>
       <c r="G45" s="236"/>
       <c r="H45" s="617" t="s">
         <v>434</v>
@@ -12826,13 +12829,13 @@
     </row>
     <row r="72" spans="1:11" ht="26.1" customHeight="1">
       <c r="A72" s="217"/>
-      <c r="B72" s="760" t="s">
+      <c r="B72" s="789" t="s">
         <v>500</v>
       </c>
-      <c r="C72" s="761"/>
-      <c r="D72" s="761"/>
-      <c r="E72" s="761"/>
-      <c r="F72" s="762"/>
+      <c r="C72" s="790"/>
+      <c r="D72" s="790"/>
+      <c r="E72" s="790"/>
+      <c r="F72" s="791"/>
       <c r="G72" s="242"/>
       <c r="H72" s="617" t="s">
         <v>434</v>
@@ -12843,13 +12846,13 @@
     </row>
     <row r="73" spans="1:11" ht="15">
       <c r="A73" s="232"/>
-      <c r="B73" s="763" t="s">
+      <c r="B73" s="799" t="s">
         <v>572</v>
       </c>
-      <c r="C73" s="764"/>
-      <c r="D73" s="764"/>
-      <c r="E73" s="764"/>
-      <c r="F73" s="765"/>
+      <c r="C73" s="800"/>
+      <c r="D73" s="800"/>
+      <c r="E73" s="800"/>
+      <c r="F73" s="801"/>
       <c r="G73" s="243"/>
       <c r="H73" s="714"/>
       <c r="I73" s="715"/>
@@ -12858,32 +12861,32 @@
     </row>
     <row r="74" spans="1:11" ht="24" customHeight="1">
       <c r="A74" s="244"/>
-      <c r="B74" s="782" t="s">
+      <c r="B74" s="796" t="s">
         <v>501</v>
       </c>
-      <c r="C74" s="783"/>
-      <c r="D74" s="783"/>
-      <c r="E74" s="783"/>
-      <c r="F74" s="783"/>
-      <c r="G74" s="783"/>
-      <c r="H74" s="783"/>
-      <c r="I74" s="783"/>
-      <c r="J74" s="784"/>
+      <c r="C74" s="797"/>
+      <c r="D74" s="797"/>
+      <c r="E74" s="797"/>
+      <c r="F74" s="797"/>
+      <c r="G74" s="797"/>
+      <c r="H74" s="797"/>
+      <c r="I74" s="797"/>
+      <c r="J74" s="798"/>
       <c r="K74" s="218"/>
     </row>
     <row r="75" spans="1:11" ht="24" customHeight="1">
       <c r="A75" s="244"/>
-      <c r="B75" s="782" t="s">
+      <c r="B75" s="796" t="s">
         <v>502</v>
       </c>
-      <c r="C75" s="783"/>
-      <c r="D75" s="783"/>
-      <c r="E75" s="783"/>
-      <c r="F75" s="783"/>
-      <c r="G75" s="783"/>
-      <c r="H75" s="783"/>
-      <c r="I75" s="783"/>
-      <c r="J75" s="784"/>
+      <c r="C75" s="797"/>
+      <c r="D75" s="797"/>
+      <c r="E75" s="797"/>
+      <c r="F75" s="797"/>
+      <c r="G75" s="797"/>
+      <c r="H75" s="797"/>
+      <c r="I75" s="797"/>
+      <c r="J75" s="798"/>
       <c r="K75" s="218"/>
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1">
@@ -13283,13 +13286,13 @@
     </row>
     <row r="101" spans="1:11" ht="24.75" customHeight="1">
       <c r="A101" s="217"/>
-      <c r="B101" s="760" t="s">
+      <c r="B101" s="789" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="761"/>
-      <c r="D101" s="761"/>
-      <c r="E101" s="761"/>
-      <c r="F101" s="762"/>
+      <c r="C101" s="790"/>
+      <c r="D101" s="790"/>
+      <c r="E101" s="790"/>
+      <c r="F101" s="791"/>
       <c r="G101" s="223"/>
       <c r="H101" s="617" t="s">
         <v>434</v>
@@ -14129,13 +14132,13 @@
     </row>
     <row r="153" spans="1:11" ht="24" customHeight="1">
       <c r="A153" s="217"/>
-      <c r="B153" s="760" t="s">
+      <c r="B153" s="789" t="s">
         <v>56</v>
       </c>
-      <c r="C153" s="761"/>
-      <c r="D153" s="761"/>
-      <c r="E153" s="761"/>
-      <c r="F153" s="762"/>
+      <c r="C153" s="790"/>
+      <c r="D153" s="790"/>
+      <c r="E153" s="790"/>
+      <c r="F153" s="791"/>
       <c r="G153" s="223"/>
       <c r="H153" s="617" t="s">
         <v>434</v>
@@ -14797,13 +14800,13 @@
     </row>
     <row r="193" spans="1:11" ht="24.75" customHeight="1">
       <c r="A193" s="217"/>
-      <c r="B193" s="760" t="s">
+      <c r="B193" s="789" t="s">
         <v>71</v>
       </c>
-      <c r="C193" s="761"/>
-      <c r="D193" s="761"/>
-      <c r="E193" s="761"/>
-      <c r="F193" s="762"/>
+      <c r="C193" s="790"/>
+      <c r="D193" s="790"/>
+      <c r="E193" s="790"/>
+      <c r="F193" s="791"/>
       <c r="G193" s="222"/>
       <c r="H193" s="617" t="s">
         <v>434</v>
@@ -14957,13 +14960,13 @@
     </row>
     <row r="203" spans="1:11" ht="25.5">
       <c r="A203" s="217"/>
-      <c r="B203" s="760" t="s">
+      <c r="B203" s="789" t="s">
         <v>76</v>
       </c>
-      <c r="C203" s="761"/>
-      <c r="D203" s="761"/>
-      <c r="E203" s="761"/>
-      <c r="F203" s="762"/>
+      <c r="C203" s="790"/>
+      <c r="D203" s="790"/>
+      <c r="E203" s="790"/>
+      <c r="F203" s="791"/>
       <c r="G203" s="222"/>
       <c r="H203" s="618"/>
       <c r="I203" s="617" t="s">
@@ -15550,13 +15553,13 @@
     </row>
     <row r="240" spans="1:11" ht="25.5" customHeight="1">
       <c r="A240" s="217"/>
-      <c r="B240" s="760" t="s">
+      <c r="B240" s="789" t="s">
         <v>97</v>
       </c>
-      <c r="C240" s="761"/>
-      <c r="D240" s="761"/>
-      <c r="E240" s="761"/>
-      <c r="F240" s="762"/>
+      <c r="C240" s="790"/>
+      <c r="D240" s="790"/>
+      <c r="E240" s="790"/>
+      <c r="F240" s="791"/>
       <c r="G240" s="222"/>
       <c r="H240" s="617" t="s">
         <v>434</v>
@@ -15582,13 +15585,13 @@
     </row>
     <row r="242" spans="1:11" ht="15">
       <c r="A242" s="217"/>
-      <c r="B242" s="760" t="s">
+      <c r="B242" s="789" t="s">
         <v>98</v>
       </c>
-      <c r="C242" s="761"/>
-      <c r="D242" s="761"/>
-      <c r="E242" s="761"/>
-      <c r="F242" s="762"/>
+      <c r="C242" s="790"/>
+      <c r="D242" s="790"/>
+      <c r="E242" s="790"/>
+      <c r="F242" s="791"/>
       <c r="G242" s="222" t="s">
         <v>434</v>
       </c>
@@ -15614,13 +15617,13 @@
     </row>
     <row r="244" spans="1:11" ht="25.5">
       <c r="A244" s="217"/>
-      <c r="B244" s="760" t="s">
+      <c r="B244" s="789" t="s">
         <v>100</v>
       </c>
-      <c r="C244" s="761"/>
-      <c r="D244" s="761"/>
-      <c r="E244" s="761"/>
-      <c r="F244" s="762"/>
+      <c r="C244" s="790"/>
+      <c r="D244" s="790"/>
+      <c r="E244" s="790"/>
+      <c r="F244" s="791"/>
       <c r="G244" s="222" t="s">
         <v>434</v>
       </c>
@@ -15650,13 +15653,13 @@
     </row>
     <row r="246" spans="1:11" ht="15">
       <c r="A246" s="217"/>
-      <c r="B246" s="760" t="s">
+      <c r="B246" s="789" t="s">
         <v>104</v>
       </c>
-      <c r="C246" s="761"/>
-      <c r="D246" s="761"/>
-      <c r="E246" s="761"/>
-      <c r="F246" s="762"/>
+      <c r="C246" s="790"/>
+      <c r="D246" s="790"/>
+      <c r="E246" s="790"/>
+      <c r="F246" s="791"/>
       <c r="G246" s="222" t="s">
         <v>434</v>
       </c>
@@ -15686,13 +15689,13 @@
     </row>
     <row r="248" spans="1:11" ht="15">
       <c r="A248" s="217"/>
-      <c r="B248" s="760" t="s">
+      <c r="B248" s="789" t="s">
         <v>653</v>
       </c>
-      <c r="C248" s="761"/>
-      <c r="D248" s="761"/>
-      <c r="E248" s="761"/>
-      <c r="F248" s="762"/>
+      <c r="C248" s="790"/>
+      <c r="D248" s="790"/>
+      <c r="E248" s="790"/>
+      <c r="F248" s="791"/>
       <c r="G248" s="222"/>
       <c r="H248" s="617"/>
       <c r="I248" s="618"/>
@@ -15718,13 +15721,13 @@
     </row>
     <row r="250" spans="1:11" s="620" customFormat="1" ht="15">
       <c r="A250" s="616"/>
-      <c r="B250" s="776" t="s">
+      <c r="B250" s="793" t="s">
         <v>674</v>
       </c>
-      <c r="C250" s="777"/>
-      <c r="D250" s="777"/>
-      <c r="E250" s="777"/>
-      <c r="F250" s="778"/>
+      <c r="C250" s="794"/>
+      <c r="D250" s="794"/>
+      <c r="E250" s="794"/>
+      <c r="F250" s="795"/>
       <c r="G250" s="617"/>
       <c r="H250" s="617"/>
       <c r="I250" s="618"/>
@@ -15748,13 +15751,13 @@
     </row>
     <row r="252" spans="1:11" s="632" customFormat="1" ht="15.75" customHeight="1">
       <c r="A252" s="628"/>
-      <c r="B252" s="779" t="s">
+      <c r="B252" s="786" t="s">
         <v>669</v>
       </c>
-      <c r="C252" s="780"/>
-      <c r="D252" s="780"/>
-      <c r="E252" s="780"/>
-      <c r="F252" s="781"/>
+      <c r="C252" s="787"/>
+      <c r="D252" s="787"/>
+      <c r="E252" s="787"/>
+      <c r="F252" s="788"/>
       <c r="G252" s="629"/>
       <c r="H252" s="629"/>
       <c r="I252" s="630"/>
@@ -15778,13 +15781,13 @@
     </row>
     <row r="254" spans="1:11" s="632" customFormat="1" ht="31.5" customHeight="1">
       <c r="A254" s="628"/>
-      <c r="B254" s="779" t="s">
+      <c r="B254" s="786" t="s">
         <v>675</v>
       </c>
-      <c r="C254" s="780"/>
-      <c r="D254" s="780"/>
-      <c r="E254" s="780"/>
-      <c r="F254" s="781"/>
+      <c r="C254" s="787"/>
+      <c r="D254" s="787"/>
+      <c r="E254" s="787"/>
+      <c r="F254" s="788"/>
       <c r="G254" s="629"/>
       <c r="H254" s="629"/>
       <c r="I254" s="630"/>
@@ -15808,13 +15811,13 @@
     </row>
     <row r="256" spans="1:11" s="632" customFormat="1" ht="15.75" customHeight="1">
       <c r="A256" s="628"/>
-      <c r="B256" s="779" t="s">
+      <c r="B256" s="786" t="s">
         <v>670</v>
       </c>
-      <c r="C256" s="780"/>
-      <c r="D256" s="780"/>
-      <c r="E256" s="780"/>
-      <c r="F256" s="781"/>
+      <c r="C256" s="787"/>
+      <c r="D256" s="787"/>
+      <c r="E256" s="787"/>
+      <c r="F256" s="788"/>
       <c r="G256" s="629"/>
       <c r="H256" s="629"/>
       <c r="I256" s="630"/>
@@ -15838,13 +15841,13 @@
     </row>
     <row r="258" spans="1:11" s="632" customFormat="1" ht="15.75" customHeight="1">
       <c r="A258" s="628"/>
-      <c r="B258" s="779" t="s">
+      <c r="B258" s="786" t="s">
         <v>671</v>
       </c>
-      <c r="C258" s="780"/>
-      <c r="D258" s="780"/>
-      <c r="E258" s="780"/>
-      <c r="F258" s="781"/>
+      <c r="C258" s="787"/>
+      <c r="D258" s="787"/>
+      <c r="E258" s="787"/>
+      <c r="F258" s="788"/>
       <c r="G258" s="629"/>
       <c r="H258" s="629"/>
       <c r="I258" s="630"/>
@@ -15868,13 +15871,13 @@
     </row>
     <row r="260" spans="1:11" s="632" customFormat="1" ht="15.75" customHeight="1">
       <c r="A260" s="628"/>
-      <c r="B260" s="779" t="s">
+      <c r="B260" s="786" t="s">
         <v>672</v>
       </c>
-      <c r="C260" s="780"/>
-      <c r="D260" s="780"/>
-      <c r="E260" s="780"/>
-      <c r="F260" s="781"/>
+      <c r="C260" s="787"/>
+      <c r="D260" s="787"/>
+      <c r="E260" s="787"/>
+      <c r="F260" s="788"/>
       <c r="G260" s="629"/>
       <c r="H260" s="629"/>
       <c r="I260" s="630"/>
@@ -15898,13 +15901,13 @@
     </row>
     <row r="262" spans="1:11" s="632" customFormat="1" ht="15.75" customHeight="1">
       <c r="A262" s="628"/>
-      <c r="B262" s="779" t="s">
+      <c r="B262" s="786" t="s">
         <v>673</v>
       </c>
-      <c r="C262" s="780"/>
-      <c r="D262" s="780"/>
-      <c r="E262" s="780"/>
-      <c r="F262" s="781"/>
+      <c r="C262" s="787"/>
+      <c r="D262" s="787"/>
+      <c r="E262" s="787"/>
+      <c r="F262" s="788"/>
       <c r="G262" s="629"/>
       <c r="H262" s="629"/>
       <c r="I262" s="630"/>
@@ -15928,13 +15931,13 @@
     </row>
     <row r="264" spans="1:11" s="632" customFormat="1" ht="15.75" customHeight="1">
       <c r="A264" s="628"/>
-      <c r="B264" s="779" t="s">
+      <c r="B264" s="786" t="s">
         <v>676</v>
       </c>
-      <c r="C264" s="780"/>
-      <c r="D264" s="780"/>
-      <c r="E264" s="780"/>
-      <c r="F264" s="781"/>
+      <c r="C264" s="787"/>
+      <c r="D264" s="787"/>
+      <c r="E264" s="787"/>
+      <c r="F264" s="788"/>
       <c r="G264" s="629"/>
       <c r="H264" s="629"/>
       <c r="I264" s="630"/>
@@ -15958,13 +15961,13 @@
     </row>
     <row r="266" spans="1:11" s="632" customFormat="1" ht="26.25" customHeight="1">
       <c r="A266" s="628"/>
-      <c r="B266" s="779" t="s">
+      <c r="B266" s="786" t="s">
         <v>677</v>
       </c>
-      <c r="C266" s="780"/>
-      <c r="D266" s="780"/>
-      <c r="E266" s="780"/>
-      <c r="F266" s="781"/>
+      <c r="C266" s="787"/>
+      <c r="D266" s="787"/>
+      <c r="E266" s="787"/>
+      <c r="F266" s="788"/>
       <c r="G266" s="629"/>
       <c r="H266" s="629"/>
       <c r="I266" s="630"/>
@@ -15988,13 +15991,13 @@
     </row>
     <row r="268" spans="1:11" s="632" customFormat="1" ht="26.25" customHeight="1">
       <c r="A268" s="628"/>
-      <c r="B268" s="779" t="s">
+      <c r="B268" s="786" t="s">
         <v>723</v>
       </c>
-      <c r="C268" s="780"/>
-      <c r="D268" s="780"/>
-      <c r="E268" s="780"/>
-      <c r="F268" s="781"/>
+      <c r="C268" s="787"/>
+      <c r="D268" s="787"/>
+      <c r="E268" s="787"/>
+      <c r="F268" s="788"/>
       <c r="G268" s="629"/>
       <c r="H268" s="629"/>
       <c r="I268" s="630"/>
@@ -16018,13 +16021,13 @@
     </row>
     <row r="270" spans="1:11" s="632" customFormat="1" ht="26.25" customHeight="1">
       <c r="A270" s="628"/>
-      <c r="B270" s="779" t="s">
+      <c r="B270" s="786" t="s">
         <v>724</v>
       </c>
-      <c r="C270" s="780"/>
-      <c r="D270" s="780"/>
-      <c r="E270" s="780"/>
-      <c r="F270" s="781"/>
+      <c r="C270" s="787"/>
+      <c r="D270" s="787"/>
+      <c r="E270" s="787"/>
+      <c r="F270" s="788"/>
       <c r="G270" s="629"/>
       <c r="H270" s="629"/>
       <c r="I270" s="630"/>
@@ -16174,18 +16177,18 @@
       <c r="A280" s="250" t="s">
         <v>115</v>
       </c>
-      <c r="B280" s="775" t="s">
+      <c r="B280" s="792" t="s">
         <v>116</v>
       </c>
-      <c r="C280" s="775"/>
-      <c r="D280" s="775"/>
-      <c r="E280" s="775"/>
-      <c r="F280" s="775"/>
-      <c r="G280" s="775"/>
-      <c r="H280" s="775"/>
-      <c r="I280" s="775"/>
-      <c r="J280" s="775"/>
-      <c r="K280" s="775"/>
+      <c r="C280" s="792"/>
+      <c r="D280" s="792"/>
+      <c r="E280" s="792"/>
+      <c r="F280" s="792"/>
+      <c r="G280" s="792"/>
+      <c r="H280" s="792"/>
+      <c r="I280" s="792"/>
+      <c r="J280" s="792"/>
+      <c r="K280" s="792"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -16203,13 +16206,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="31">
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="B280:K280"/>
     <mergeCell ref="B250:F250"/>
     <mergeCell ref="B246:F246"/>
@@ -16226,14 +16230,13 @@
     <mergeCell ref="B203:F203"/>
     <mergeCell ref="B74:J74"/>
     <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B258:F258"/>
   </mergeCells>
   <phoneticPr fontId="50"/>
   <pageMargins left="0.78740157480314965" right="0.33" top="0.47" bottom="0.98425196850393704" header="0.25" footer="0.51181102362204722"/>
@@ -16288,15 +16291,15 @@
       <c r="P1" s="113"/>
     </row>
     <row r="2" spans="2:16" s="30" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="B2" s="785" t="s">
+      <c r="B2" s="811" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="786"/>
-      <c r="D2" s="786"/>
-      <c r="E2" s="787" t="s">
+      <c r="C2" s="812"/>
+      <c r="D2" s="812"/>
+      <c r="E2" s="813" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="787"/>
+      <c r="F2" s="813"/>
       <c r="G2" s="28" t="s">
         <v>201</v>
       </c>
@@ -16310,18 +16313,18 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" s="30" customFormat="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B3" s="785" t="s">
+      <c r="B3" s="811" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="786"/>
-      <c r="D3" s="786"/>
-      <c r="E3" s="789" t="str">
+      <c r="C3" s="812"/>
+      <c r="D3" s="812"/>
+      <c r="E3" s="815" t="str">
         <f>Cover!D18</f>
         <v>${projectName}</v>
       </c>
-      <c r="F3" s="790"/>
-      <c r="G3" s="790"/>
-      <c r="H3" s="791"/>
+      <c r="F3" s="816"/>
+      <c r="G3" s="816"/>
+      <c r="H3" s="817"/>
       <c r="J3" s="34" t="s">
         <v>203</v>
       </c>
@@ -16336,17 +16339,17 @@
       </c>
     </row>
     <row r="4" spans="2:16" s="30" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B4" s="785" t="s">
+      <c r="B4" s="811" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="786"/>
-      <c r="D4" s="786"/>
-      <c r="E4" s="787" t="s">
+      <c r="C4" s="812"/>
+      <c r="D4" s="812"/>
+      <c r="E4" s="813" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="787"/>
-      <c r="G4" s="787"/>
-      <c r="H4" s="788"/>
+      <c r="F4" s="813"/>
+      <c r="G4" s="813"/>
+      <c r="H4" s="814"/>
       <c r="J4" s="37">
         <f>H11+H6+H23</f>
         <v>69409.42857142858</v>
@@ -18182,12 +18185,12 @@
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1">
       <c r="H1" s="703"/>
-      <c r="J1" s="814" t="s">
+      <c r="J1" s="820" t="s">
         <v>725</v>
       </c>
-      <c r="K1" s="814"/>
-      <c r="L1" s="814"/>
-      <c r="M1" s="814"/>
+      <c r="K1" s="820"/>
+      <c r="L1" s="820"/>
+      <c r="M1" s="820"/>
       <c r="R1" s="85">
         <v>1.07</v>
       </c>
@@ -18196,10 +18199,10 @@
       <c r="A2" s="188" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="801" t="s">
+      <c r="B2" s="832" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="802"/>
+      <c r="C2" s="833"/>
       <c r="D2" s="189" t="s">
         <v>289</v>
       </c>
@@ -18216,16 +18219,16 @@
         <v>365</v>
       </c>
       <c r="I2" s="541"/>
-      <c r="J2" s="815" t="s">
+      <c r="J2" s="821" t="s">
         <v>331</v>
       </c>
-      <c r="K2" s="815" t="s">
+      <c r="K2" s="821" t="s">
         <v>332</v>
       </c>
-      <c r="L2" s="815" t="s">
+      <c r="L2" s="821" t="s">
         <v>333</v>
       </c>
-      <c r="M2" s="816" t="s">
+      <c r="M2" s="822" t="s">
         <v>334</v>
       </c>
       <c r="O2" s="87" t="s">
@@ -18249,10 +18252,10 @@
       </c>
       <c r="H3" s="187"/>
       <c r="I3" s="541"/>
-      <c r="J3" s="815"/>
-      <c r="K3" s="815"/>
-      <c r="L3" s="815"/>
-      <c r="M3" s="816"/>
+      <c r="J3" s="821"/>
+      <c r="K3" s="821"/>
+      <c r="L3" s="821"/>
+      <c r="M3" s="822"/>
       <c r="O3" s="10" t="s">
         <v>335</v>
       </c>
@@ -18265,10 +18268,10 @@
       <c r="R3" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="S3" s="812" t="s">
+      <c r="S3" s="818" t="s">
         <v>351</v>
       </c>
-      <c r="T3" s="813"/>
+      <c r="T3" s="819"/>
     </row>
     <row r="4" spans="1:20" ht="21" customHeight="1">
       <c r="A4" s="254"/>
@@ -20868,10 +20871,10 @@
     </row>
     <row r="52" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A52" s="542"/>
-      <c r="B52" s="796" t="s">
+      <c r="B52" s="827" t="s">
         <v>722</v>
       </c>
-      <c r="C52" s="797"/>
+      <c r="C52" s="828"/>
       <c r="D52" s="543"/>
       <c r="E52" s="544"/>
       <c r="F52" s="545"/>
@@ -20936,10 +20939,10 @@
     </row>
     <row r="54" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A54" s="571"/>
-      <c r="B54" s="810" t="s">
+      <c r="B54" s="841" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="811"/>
+      <c r="C54" s="842"/>
       <c r="D54" s="334" t="s">
         <v>192</v>
       </c>
@@ -20981,10 +20984,10 @@
     </row>
     <row r="55" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A55" s="571"/>
-      <c r="B55" s="803" t="s">
+      <c r="B55" s="834" t="s">
         <v>367</v>
       </c>
-      <c r="C55" s="804"/>
+      <c r="C55" s="835"/>
       <c r="D55" s="334" t="s">
         <v>192</v>
       </c>
@@ -21024,10 +21027,10 @@
     </row>
     <row r="56" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A56" s="335"/>
-      <c r="B56" s="803" t="s">
+      <c r="B56" s="834" t="s">
         <v>551</v>
       </c>
-      <c r="C56" s="811"/>
+      <c r="C56" s="842"/>
       <c r="D56" s="334" t="s">
         <v>192</v>
       </c>
@@ -21063,8 +21066,8 @@
     </row>
     <row r="57" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A57" s="335"/>
-      <c r="B57" s="805"/>
-      <c r="C57" s="806"/>
+      <c r="B57" s="836"/>
+      <c r="C57" s="837"/>
       <c r="D57" s="334"/>
       <c r="E57" s="289"/>
       <c r="F57" s="336"/>
@@ -21121,11 +21124,11 @@
       <c r="T58" s="647"/>
     </row>
     <row r="59" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A59" s="807" t="s">
+      <c r="A59" s="838" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="808"/>
-      <c r="C59" s="809"/>
+      <c r="B59" s="839"/>
+      <c r="C59" s="840"/>
       <c r="D59" s="548"/>
       <c r="E59" s="549"/>
       <c r="F59" s="550"/>
@@ -21155,11 +21158,11 @@
       <c r="T59" s="647"/>
     </row>
     <row r="60" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A60" s="798" t="s">
+      <c r="A60" s="829" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="799"/>
-      <c r="C60" s="800"/>
+      <c r="B60" s="830"/>
+      <c r="C60" s="831"/>
       <c r="D60" s="158" t="s">
         <v>192</v>
       </c>
@@ -21197,11 +21200,11 @@
       <c r="T60" s="647"/>
     </row>
     <row r="61" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A61" s="792" t="s">
+      <c r="A61" s="823" t="s">
         <v>366</v>
       </c>
-      <c r="B61" s="793"/>
-      <c r="C61" s="794"/>
+      <c r="B61" s="824"/>
+      <c r="C61" s="825"/>
       <c r="D61" s="552"/>
       <c r="E61" s="553"/>
       <c r="F61" s="553"/>
@@ -21717,8 +21720,8 @@
     </row>
     <row r="80" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A80" s="414"/>
-      <c r="B80" s="795"/>
-      <c r="C80" s="795"/>
+      <c r="B80" s="826"/>
+      <c r="C80" s="826"/>
       <c r="D80" s="692"/>
       <c r="E80" s="692"/>
       <c r="F80" s="693"/>
@@ -23058,12 +23061,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B52:C52"/>
@@ -23074,6 +23071,12 @@
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.62992125984252001" right="0.196850393700787" top="0.66929133858267698" bottom="0.196850393700787" header="0.27559055118110198" footer="0.31496062992126"/>
@@ -23096,7 +23099,7 @@
   </sheetPr>
   <dimension ref="A1:BP605"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -23200,18 +23203,18 @@
       <c r="AT2" s="340"/>
     </row>
     <row r="3" spans="1:68" s="414" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="823" t="s">
+      <c r="A3" s="843" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="833" t="s">
+      <c r="B3" s="853" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="834"/>
+      <c r="C3" s="854"/>
       <c r="D3" s="416"/>
-      <c r="E3" s="825" t="s">
+      <c r="E3" s="845" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="827" t="s">
+      <c r="F3" s="847" t="s">
         <v>290</v>
       </c>
       <c r="G3" s="417" t="s">
@@ -23220,19 +23223,19 @@
       <c r="H3" s="417" t="s">
         <v>292</v>
       </c>
-      <c r="I3" s="829" t="s">
+      <c r="I3" s="849" t="s">
         <v>297</v>
       </c>
       <c r="J3" s="418"/>
-      <c r="K3" s="831" t="s">
+      <c r="K3" s="851" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="819" t="s">
+      <c r="L3" s="859" t="s">
         <v>555</v>
       </c>
-      <c r="M3" s="819"/>
+      <c r="M3" s="859"/>
       <c r="N3" s="418"/>
-      <c r="O3" s="820" t="s">
+      <c r="O3" s="860" t="s">
         <v>119</v>
       </c>
       <c r="P3" s="503"/>
@@ -23277,21 +23280,21 @@
       <c r="AD3" s="422" t="s">
         <v>310</v>
       </c>
-      <c r="AE3" s="822" t="s">
+      <c r="AE3" s="862" t="s">
         <v>328</v>
       </c>
-      <c r="AF3" s="822"/>
+      <c r="AF3" s="862"/>
       <c r="AG3" s="498"/>
       <c r="AH3" s="410"/>
-      <c r="AI3" s="817" t="s">
+      <c r="AI3" s="857" t="s">
         <v>311</v>
       </c>
-      <c r="AJ3" s="817"/>
-      <c r="AK3" s="817"/>
-      <c r="AL3" s="817"/>
-      <c r="AM3" s="817"/>
-      <c r="AN3" s="818"/>
-      <c r="AO3" s="818"/>
+      <c r="AJ3" s="857"/>
+      <c r="AK3" s="857"/>
+      <c r="AL3" s="857"/>
+      <c r="AM3" s="857"/>
+      <c r="AN3" s="858"/>
+      <c r="AO3" s="858"/>
       <c r="AP3" s="415"/>
       <c r="AQ3" s="423" t="s">
         <v>312</v>
@@ -23307,21 +23310,21 @@
       </c>
     </row>
     <row r="4" spans="1:68" s="414" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="824"/>
-      <c r="B4" s="835"/>
-      <c r="C4" s="836"/>
+      <c r="A4" s="844"/>
+      <c r="B4" s="855"/>
+      <c r="C4" s="856"/>
       <c r="D4" s="425"/>
-      <c r="E4" s="826"/>
-      <c r="F4" s="828"/>
+      <c r="E4" s="846"/>
+      <c r="F4" s="848"/>
       <c r="G4" s="426" t="s">
         <v>295</v>
       </c>
       <c r="H4" s="426" t="s">
         <v>295</v>
       </c>
-      <c r="I4" s="830"/>
+      <c r="I4" s="850"/>
       <c r="J4" s="418"/>
-      <c r="K4" s="832"/>
+      <c r="K4" s="852"/>
       <c r="L4" s="653" t="s">
         <v>299</v>
       </c>
@@ -23329,7 +23332,7 @@
         <v>327</v>
       </c>
       <c r="N4" s="418"/>
-      <c r="O4" s="821"/>
+      <c r="O4" s="861"/>
       <c r="P4" s="504"/>
       <c r="Q4" s="504"/>
       <c r="R4" s="500" t="s">
@@ -23407,56 +23410,56 @@
       <c r="AT4" s="432"/>
     </row>
     <row r="5" spans="1:68" s="414" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="839"/>
-      <c r="B5" s="840"/>
-      <c r="C5" s="841"/>
-      <c r="D5" s="842"/>
-      <c r="E5" s="843"/>
-      <c r="F5" s="844"/>
-      <c r="G5" s="845"/>
-      <c r="H5" s="845"/>
-      <c r="I5" s="846"/>
+      <c r="A5" s="756"/>
+      <c r="B5" s="757"/>
+      <c r="C5" s="758"/>
+      <c r="D5" s="759"/>
+      <c r="E5" s="760"/>
+      <c r="F5" s="761"/>
+      <c r="G5" s="762"/>
+      <c r="H5" s="762"/>
+      <c r="I5" s="763"/>
       <c r="J5" s="418"/>
-      <c r="K5" s="847"/>
-      <c r="L5" s="848"/>
-      <c r="M5" s="848"/>
+      <c r="K5" s="764"/>
+      <c r="L5" s="765"/>
+      <c r="M5" s="765"/>
       <c r="N5" s="418"/>
-      <c r="O5" s="849"/>
-      <c r="P5" s="850"/>
-      <c r="Q5" s="850"/>
-      <c r="R5" s="851"/>
-      <c r="S5" s="851"/>
-      <c r="T5" s="852"/>
-      <c r="U5" s="853"/>
-      <c r="V5" s="853"/>
-      <c r="W5" s="853"/>
-      <c r="X5" s="854"/>
-      <c r="Y5" s="855"/>
-      <c r="Z5" s="856"/>
-      <c r="AA5" s="857"/>
-      <c r="AB5" s="858"/>
-      <c r="AC5" s="859"/>
-      <c r="AD5" s="860"/>
-      <c r="AE5" s="861"/>
-      <c r="AF5" s="861"/>
+      <c r="O5" s="766"/>
+      <c r="P5" s="767"/>
+      <c r="Q5" s="767"/>
+      <c r="R5" s="768"/>
+      <c r="S5" s="768"/>
+      <c r="T5" s="769"/>
+      <c r="U5" s="770"/>
+      <c r="V5" s="770"/>
+      <c r="W5" s="770"/>
+      <c r="X5" s="771"/>
+      <c r="Y5" s="772"/>
+      <c r="Z5" s="773"/>
+      <c r="AA5" s="774"/>
+      <c r="AB5" s="775"/>
+      <c r="AC5" s="776"/>
+      <c r="AD5" s="777"/>
+      <c r="AE5" s="778"/>
+      <c r="AF5" s="778"/>
       <c r="AG5" s="498"/>
       <c r="AH5" s="410"/>
-      <c r="AI5" s="862"/>
-      <c r="AJ5" s="862"/>
-      <c r="AK5" s="863"/>
-      <c r="AL5" s="859"/>
-      <c r="AM5" s="859"/>
-      <c r="AN5" s="859"/>
-      <c r="AO5" s="859"/>
+      <c r="AI5" s="779"/>
+      <c r="AJ5" s="779"/>
+      <c r="AK5" s="780"/>
+      <c r="AL5" s="776"/>
+      <c r="AM5" s="776"/>
+      <c r="AN5" s="776"/>
+      <c r="AO5" s="776"/>
       <c r="AP5" s="411"/>
-      <c r="AQ5" s="864"/>
-      <c r="AR5" s="864"/>
-      <c r="AS5" s="864"/>
-      <c r="AT5" s="865"/>
+      <c r="AQ5" s="781"/>
+      <c r="AR5" s="781"/>
+      <c r="AS5" s="781"/>
+      <c r="AT5" s="782"/>
     </row>
     <row r="6" spans="1:68" s="164" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="337"/>
-      <c r="B6" s="756" t="s">
+      <c r="B6" s="755" t="s">
         <v>749</v>
       </c>
       <c r="C6" s="557"/>
@@ -42712,17 +42715,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.19" top="0.74803149606299202" bottom="0.47244094488188998" header="0.511811023622047" footer="0.27559055118110198"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" verticalDpi="300" r:id="rId2"/>
@@ -42740,8 +42743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -42767,8 +42770,8 @@
       <c r="D1" s="665"/>
       <c r="E1" s="390"/>
       <c r="F1" s="390"/>
-      <c r="G1" s="755" t="s">
-        <v>740</v>
+      <c r="G1" s="865" t="s">
+        <v>750</v>
       </c>
       <c r="H1" s="667"/>
       <c r="I1" s="667"/>
@@ -42803,7 +42806,7 @@
       <c r="K3" s="667"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="837" t="s">
+      <c r="A4" s="863" t="s">
         <v>368</v>
       </c>
       <c r="B4" s="754" t="s">
@@ -42828,7 +42831,7 @@
       <c r="K4" s="667"/>
     </row>
     <row r="5" spans="1:11" s="670" customFormat="1">
-      <c r="A5" s="838"/>
+      <c r="A5" s="864"/>
       <c r="B5" s="394" t="s">
         <v>748</v>
       </c>
